--- a/tabular/Arctic_miss.xlsx
+++ b/tabular/Arctic_miss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20AC2A-E5AE-9E48-832B-B674D52C01AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFE157-0D03-894B-82C4-7448AA589288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="40620" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="8460" windowWidth="40620" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14815" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14814" uniqueCount="1393">
   <si>
     <t>country_edit</t>
   </si>
@@ -5190,7 +5190,7 @@
   <dimension ref="A1:AG544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5550,8 +5550,8 @@
       <c r="M4" t="s">
         <v>561</v>
       </c>
-      <c r="N4" t="s">
-        <v>561</v>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="O4" t="s">
         <v>1160</v>
